--- a/数据整理/stocks/A股/上证主板/600157-永泰能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600157-永泰能源.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>159990</t>
-  </si>
-  <si>
-    <t>银华巨潮小盘价值ETF</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>95.06</t>
-  </si>
-  <si>
-    <t>1.62</t>
-  </si>
-  <si>
-    <t>0.0107</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600157-永泰能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600157-永泰能源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,4 +632,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600157-永泰能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600157-永泰能源.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -640,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,17 +652,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -671,14 +692,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>545.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9999</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -687,13 +730,1449 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7325</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6347</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8115</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>60.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3367</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2067</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600157-永泰能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600157-永泰能源.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2103,7 +2104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2114,17 +2115,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2134,14 +2155,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.8</v>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>402.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2960</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2150,14 +2193,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2062</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2166,13 +2231,1503 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5061</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5928</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>60.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3608</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2178</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.119999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600157-永泰能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600157-永泰能源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3642,7 +3643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3653,17 +3654,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3673,14 +3694,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.119999999999999</v>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0650</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3689,14 +3732,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.8</v>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6320</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3705,14 +3770,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7790</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3721,13 +3808,797 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6774</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.119999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600157-永泰能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600157-永泰能源.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>7.9</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>8.119999999999999</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" t="n">
-        <v>10.8</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -566,6 +583,1694 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7786</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>387.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1711</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3673</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6729</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6403</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3797</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2118</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银中证500ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>97.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>96.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97.10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>016814</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1419,7 +3124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2957,7 +4662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4419,7 +6124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4513,7 +6218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600157-永泰能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600157-永泰能源.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
-        <v>10.4</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>7.9</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>8.119999999999999</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>10.8</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -583,6 +600,2264 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1195</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1983</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4070</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0759</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6989</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5344</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4375</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2504</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>41.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013596</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>016814</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银中证500ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015507</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>016347</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）E</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>015508</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004360</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004359</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>96.67</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>015526</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2270,7 +4545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3124,7 +5399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4662,7 +6937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6124,7 +8399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6218,7 +8493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
